--- a/docs/分配表MODBUS-20230108.xlsx
+++ b/docs/分配表MODBUS-20230108.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20393"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\postgraduate\宇航院\项目\LED_深圳\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\C#\LED-controller\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBB8516-FEAD-4903-B33A-FA01419E3CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F819DE13-652C-4338-BD23-93BDDD767CE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1号从站A" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="427">
   <si>
     <t>115200，8，1，无</t>
   </si>
@@ -1341,24 +1341,51 @@
   <si>
     <t>其余的地址和控制指令都一样（只有站号的区别）</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>H20</t>
+  </si>
+  <si>
+    <t>H21</t>
+  </si>
+  <si>
+    <t>H22</t>
+  </si>
+  <si>
+    <t>H23</t>
+  </si>
+  <si>
+    <t>H24</t>
+  </si>
+  <si>
+    <t>H25</t>
+  </si>
+  <si>
+    <t>H26</t>
+  </si>
+  <si>
+    <t>H27</t>
+  </si>
+  <si>
+    <t>H28</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1366,14 +1393,14 @@
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1381,7 +1408,7 @@
     <font>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1389,7 +1416,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1495,12 +1522,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1514,6 +1535,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1825,121 +1852,121 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AE10" sqref="AE10"/>
+    <sheetView tabSelected="1" topLeftCell="Y4" workbookViewId="0">
+      <selection activeCell="AJ45" sqref="AJ45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="12.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="29.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="29.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="9.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.77734375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="32.109375" style="1" customWidth="1"/>
-    <col min="13" max="14" width="37.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="32.140625" style="1" customWidth="1"/>
+    <col min="13" max="14" width="37.140625" style="1" customWidth="1"/>
     <col min="15" max="15" width="10" style="1" customWidth="1"/>
     <col min="16" max="16" width="11" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="32.21875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="37.109375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="43.88671875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="9.6640625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="11.44140625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="11.109375" style="1" customWidth="1"/>
-    <col min="24" max="24" width="34.88671875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="32.44140625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="29.109375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="22.33203125" style="3" customWidth="1"/>
-    <col min="28" max="28" width="14.33203125" style="1" customWidth="1"/>
-    <col min="29" max="29" width="15.109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="33.109375" style="1" customWidth="1"/>
-    <col min="31" max="32" width="28.6640625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="12.6640625" style="1" customWidth="1"/>
-    <col min="34" max="34" width="9.88671875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="32.28515625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="37.140625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="43.85546875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="9.7109375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="11.42578125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="11.140625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="34.85546875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="32.42578125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="29.140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="22.28515625" style="3" customWidth="1"/>
+    <col min="28" max="28" width="14.28515625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="15.140625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="33.140625" style="1" customWidth="1"/>
+    <col min="31" max="32" width="28.7109375" style="1" customWidth="1"/>
+    <col min="33" max="33" width="12.7109375" style="1" customWidth="1"/>
+    <col min="34" max="34" width="9.85546875" style="1" customWidth="1"/>
     <col min="35" max="35" width="12" style="1" customWidth="1"/>
-    <col min="36" max="36" width="11.44140625" style="1" customWidth="1"/>
-    <col min="37" max="37" width="32.88671875" style="1" customWidth="1"/>
-    <col min="38" max="38" width="33.21875" style="1" customWidth="1"/>
-    <col min="39" max="39" width="17.33203125" style="1" customWidth="1"/>
-    <col min="40" max="40" width="11.44140625" style="1" customWidth="1"/>
+    <col min="36" max="36" width="11.42578125" style="1" customWidth="1"/>
+    <col min="37" max="37" width="32.85546875" style="1" customWidth="1"/>
+    <col min="38" max="38" width="33.28515625" style="1" customWidth="1"/>
+    <col min="39" max="39" width="17.28515625" style="1" customWidth="1"/>
+    <col min="40" max="40" width="11.42578125" style="1" customWidth="1"/>
     <col min="41" max="41" width="9" style="1"/>
-    <col min="42" max="42" width="11.77734375" style="1" customWidth="1"/>
-    <col min="43" max="43" width="13.21875" style="1" customWidth="1"/>
-    <col min="44" max="44" width="34.88671875" style="1" customWidth="1"/>
-    <col min="45" max="45" width="24.44140625" style="1" customWidth="1"/>
+    <col min="42" max="42" width="11.7109375" style="1" customWidth="1"/>
+    <col min="43" max="43" width="13.28515625" style="1" customWidth="1"/>
+    <col min="44" max="44" width="34.85546875" style="1" customWidth="1"/>
+    <col min="45" max="45" width="24.42578125" style="1" customWidth="1"/>
     <col min="46" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="H1" s="13" t="s">
+    <row r="1" spans="1:44">
+      <c r="H1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="11" t="s">
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="11"/>
-      <c r="AG1" s="11"/>
-    </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+    </row>
+    <row r="2" spans="1:44">
       <c r="L2" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="11"/>
-    </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="9"/>
+    </row>
+    <row r="3" spans="1:44">
       <c r="B3" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="D3" s="10"/>
+      <c r="D3" s="14"/>
       <c r="E3" s="1" t="s">
         <v>384</v>
       </c>
@@ -1949,10 +1976,10 @@
       <c r="I3" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="15"/>
+      <c r="K3" s="13"/>
       <c r="L3" s="2" t="s">
         <v>317</v>
       </c>
@@ -1965,10 +1992,10 @@
       <c r="O3" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="10"/>
+      <c r="Q3" s="14"/>
       <c r="R3" s="2" t="s">
         <v>317</v>
       </c>
@@ -1981,10 +2008,10 @@
       <c r="U3" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="V3" s="10" t="s">
+      <c r="V3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="W3" s="10"/>
+      <c r="W3" s="14"/>
       <c r="X3" s="2" t="s">
         <v>317</v>
       </c>
@@ -1994,10 +2021,10 @@
       <c r="Z3" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="AB3" s="10" t="s">
+      <c r="AB3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="AC3" s="10"/>
+      <c r="AC3" s="14"/>
       <c r="AD3" s="2" t="s">
         <v>320</v>
       </c>
@@ -2007,23 +2034,23 @@
       <c r="AF3" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="AI3" s="10" t="s">
+      <c r="AI3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="AJ3" s="10"/>
-      <c r="AK3" s="10" t="s">
+      <c r="AJ3" s="14"/>
+      <c r="AK3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="10"/>
-      <c r="AP3" s="10" t="s">
+      <c r="AL3" s="14"/>
+      <c r="AP3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="AQ3" s="10"/>
+      <c r="AQ3" s="14"/>
       <c r="AR3" s="2" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44">
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
@@ -2129,7 +2156,7 @@
       </c>
       <c r="AR4" s="2"/>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44">
       <c r="A5" s="5" t="s">
         <v>345</v>
       </c>
@@ -2245,7 +2272,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44">
       <c r="A6" s="5" t="s">
         <v>407</v>
       </c>
@@ -2353,7 +2380,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44">
       <c r="A7" s="5" t="s">
         <v>408</v>
       </c>
@@ -2443,7 +2470,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44">
       <c r="A8" s="5" t="s">
         <v>356</v>
       </c>
@@ -2530,7 +2557,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44">
       <c r="A9" s="1" t="s">
         <v>411</v>
       </c>
@@ -2602,7 +2629,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44">
       <c r="A10" s="1" t="s">
         <v>410</v>
       </c>
@@ -2674,7 +2701,7 @@
       </c>
       <c r="AR10" s="5"/>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44">
       <c r="A11" s="1" t="s">
         <v>342</v>
       </c>
@@ -2736,7 +2763,7 @@
       <c r="AK11" s="2"/>
       <c r="AL11" s="2"/>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:44">
       <c r="A12" s="1" t="s">
         <v>369</v>
       </c>
@@ -2798,7 +2825,7 @@
       <c r="AK12" s="2"/>
       <c r="AL12" s="2"/>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:44">
       <c r="A13" s="1" t="s">
         <v>373</v>
       </c>
@@ -2860,7 +2887,7 @@
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:44">
       <c r="A14" s="1" t="s">
         <v>377</v>
       </c>
@@ -2922,7 +2949,7 @@
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:44">
       <c r="I15" s="2">
         <v>11</v>
       </c>
@@ -2972,7 +2999,7 @@
       <c r="AK15" s="2"/>
       <c r="AL15" s="2"/>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:44">
       <c r="I16" s="2">
         <v>12</v>
       </c>
@@ -3022,7 +3049,7 @@
       <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
     </row>
-    <row r="17" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:38">
       <c r="I17" s="2">
         <v>13</v>
       </c>
@@ -3068,7 +3095,7 @@
       <c r="AK17" s="2"/>
       <c r="AL17" s="2"/>
     </row>
-    <row r="18" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:38">
       <c r="I18" s="2">
         <v>14</v>
       </c>
@@ -3114,7 +3141,7 @@
       <c r="AK18" s="2"/>
       <c r="AL18" s="2"/>
     </row>
-    <row r="19" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="9:38">
       <c r="I19" s="2">
         <v>15</v>
       </c>
@@ -3160,7 +3187,7 @@
       <c r="AK19" s="2"/>
       <c r="AL19" s="2"/>
     </row>
-    <row r="20" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="9:38">
       <c r="I20" s="2">
         <v>16</v>
       </c>
@@ -3191,7 +3218,7 @@
         <v>170</v>
       </c>
       <c r="X20" s="2"/>
-      <c r="AF20" s="9" t="s">
+      <c r="AF20" s="15" t="s">
         <v>415</v>
       </c>
       <c r="AG20" s="8" t="s">
@@ -3209,7 +3236,7 @@
       <c r="AK20" s="2"/>
       <c r="AL20" s="2"/>
     </row>
-    <row r="21" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="9:38">
       <c r="I21" s="2">
         <v>17</v>
       </c>
@@ -3240,7 +3267,7 @@
         <v>178</v>
       </c>
       <c r="X21" s="2"/>
-      <c r="AF21" s="9"/>
+      <c r="AF21" s="15"/>
       <c r="AG21" s="8" t="s">
         <v>179</v>
       </c>
@@ -3256,7 +3283,7 @@
       <c r="AK21" s="2"/>
       <c r="AL21" s="2"/>
     </row>
-    <row r="22" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="9:38">
       <c r="I22" s="2">
         <v>18</v>
       </c>
@@ -3287,7 +3314,7 @@
         <v>186</v>
       </c>
       <c r="X22" s="2"/>
-      <c r="AF22" s="9"/>
+      <c r="AF22" s="15"/>
       <c r="AG22" s="8" t="s">
         <v>187</v>
       </c>
@@ -3303,7 +3330,7 @@
       <c r="AK22" s="2"/>
       <c r="AL22" s="2"/>
     </row>
-    <row r="23" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="9:38">
       <c r="I23" s="2">
         <v>19</v>
       </c>
@@ -3334,7 +3361,7 @@
         <v>194</v>
       </c>
       <c r="X23" s="2"/>
-      <c r="AF23" s="9"/>
+      <c r="AF23" s="15"/>
       <c r="AG23" s="8" t="s">
         <v>195</v>
       </c>
@@ -3350,7 +3377,7 @@
       <c r="AK23" s="2"/>
       <c r="AL23" s="2"/>
     </row>
-    <row r="24" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="9:38">
       <c r="I24" s="2">
         <v>20</v>
       </c>
@@ -3396,7 +3423,7 @@
       <c r="AK24" s="2"/>
       <c r="AL24" s="2"/>
     </row>
-    <row r="25" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="9:38">
       <c r="I25" s="2">
         <v>21</v>
       </c>
@@ -3442,7 +3469,7 @@
       <c r="AK25" s="2"/>
       <c r="AL25" s="2"/>
     </row>
-    <row r="26" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="9:38">
       <c r="I26" s="2">
         <v>22</v>
       </c>
@@ -3488,7 +3515,7 @@
       <c r="AK26" s="2"/>
       <c r="AL26" s="2"/>
     </row>
-    <row r="27" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="9:38">
       <c r="I27" s="2">
         <v>23</v>
       </c>
@@ -3534,7 +3561,7 @@
       <c r="AK27" s="2"/>
       <c r="AL27" s="2"/>
     </row>
-    <row r="28" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="9:38">
       <c r="I28" s="2">
         <v>24</v>
       </c>
@@ -3580,7 +3607,7 @@
       <c r="AK28" s="2"/>
       <c r="AL28" s="2"/>
     </row>
-    <row r="29" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="9:38">
       <c r="I29" s="2">
         <v>25</v>
       </c>
@@ -3626,7 +3653,7 @@
       <c r="AK29" s="2"/>
       <c r="AL29" s="2"/>
     </row>
-    <row r="30" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="9:38">
       <c r="I30" s="2">
         <v>26</v>
       </c>
@@ -3672,7 +3699,7 @@
       <c r="AK30" s="2"/>
       <c r="AL30" s="2"/>
     </row>
-    <row r="31" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="9:38">
       <c r="I31" s="2">
         <v>27</v>
       </c>
@@ -3718,7 +3745,7 @@
       <c r="AK31" s="2"/>
       <c r="AL31" s="2"/>
     </row>
-    <row r="32" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="9:38">
       <c r="I32" s="2">
         <v>28</v>
       </c>
@@ -3764,7 +3791,7 @@
       <c r="AK32" s="2"/>
       <c r="AL32" s="2"/>
     </row>
-    <row r="33" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="9:38">
       <c r="I33" s="2">
         <v>29</v>
       </c>
@@ -3810,7 +3837,7 @@
       <c r="AK33" s="2"/>
       <c r="AL33" s="2"/>
     </row>
-    <row r="34" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="9:38">
       <c r="I34" s="2">
         <v>30</v>
       </c>
@@ -3856,7 +3883,7 @@
       <c r="AK34" s="2"/>
       <c r="AL34" s="2"/>
     </row>
-    <row r="35" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="9:38">
       <c r="L35" s="5"/>
       <c r="AB35" s="3"/>
       <c r="AF35" s="1" t="s">
@@ -3879,7 +3906,7 @@
       </c>
       <c r="AL35" s="2"/>
     </row>
-    <row r="36" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="9:38">
       <c r="AB36" s="3"/>
       <c r="AC36" s="6"/>
       <c r="AD36" s="6"/>
@@ -3896,12 +3923,12 @@
         <v>284</v>
       </c>
       <c r="AJ36" s="2" t="s">
-        <v>166</v>
+        <v>418</v>
       </c>
       <c r="AK36" s="2"/>
       <c r="AL36" s="2"/>
     </row>
-    <row r="37" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="37" spans="9:38">
       <c r="AB37" s="3"/>
       <c r="AD37" s="5"/>
       <c r="AE37" s="5" t="s">
@@ -3917,15 +3944,15 @@
         <v>33</v>
       </c>
       <c r="AI37" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AJ37" s="2" t="s">
-        <v>174</v>
+        <v>419</v>
       </c>
       <c r="AK37" s="2"/>
       <c r="AL37" s="2"/>
     </row>
-    <row r="38" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="9:38">
       <c r="AB38" s="3"/>
       <c r="AD38" s="5"/>
       <c r="AE38" s="5" t="s">
@@ -3944,12 +3971,12 @@
         <v>288</v>
       </c>
       <c r="AJ38" s="2" t="s">
-        <v>182</v>
+        <v>420</v>
       </c>
       <c r="AK38" s="2"/>
       <c r="AL38" s="2"/>
     </row>
-    <row r="39" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="9:38">
       <c r="AB39" s="3"/>
       <c r="AD39" s="5"/>
       <c r="AF39" s="5" t="s">
@@ -3965,12 +3992,12 @@
         <v>290</v>
       </c>
       <c r="AJ39" s="2" t="s">
-        <v>190</v>
+        <v>421</v>
       </c>
       <c r="AK39" s="2"/>
       <c r="AL39" s="2"/>
     </row>
-    <row r="40" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="9:38">
       <c r="AB40" s="3"/>
       <c r="AD40" s="5"/>
       <c r="AF40" s="5" t="s">
@@ -3986,12 +4013,12 @@
         <v>292</v>
       </c>
       <c r="AJ40" s="2" t="s">
-        <v>198</v>
+        <v>422</v>
       </c>
       <c r="AK40" s="2"/>
       <c r="AL40" s="2"/>
     </row>
-    <row r="41" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="41" spans="9:38">
       <c r="AB41" s="3"/>
       <c r="AD41" s="5"/>
       <c r="AF41" s="5" t="s">
@@ -4007,12 +4034,12 @@
         <v>294</v>
       </c>
       <c r="AJ41" s="2" t="s">
-        <v>205</v>
+        <v>423</v>
       </c>
       <c r="AK41" s="2"/>
       <c r="AL41" s="2"/>
     </row>
-    <row r="42" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="9:38">
       <c r="AB42" s="3"/>
       <c r="AD42" s="5"/>
       <c r="AF42" s="5" t="s">
@@ -4028,12 +4055,12 @@
         <v>296</v>
       </c>
       <c r="AJ42" s="2" t="s">
-        <v>212</v>
+        <v>424</v>
       </c>
       <c r="AK42" s="2"/>
       <c r="AL42" s="2"/>
     </row>
-    <row r="43" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="43" spans="9:38">
       <c r="AB43" s="3"/>
       <c r="AD43" s="5"/>
       <c r="AF43" s="5" t="s">
@@ -4049,12 +4076,12 @@
         <v>298</v>
       </c>
       <c r="AJ43" s="2" t="s">
-        <v>219</v>
+        <v>425</v>
       </c>
       <c r="AK43" s="2"/>
       <c r="AL43" s="2"/>
     </row>
-    <row r="44" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="44" spans="9:38">
       <c r="AB44" s="3"/>
       <c r="AD44" s="5"/>
       <c r="AF44" s="5" t="s">
@@ -4070,24 +4097,24 @@
         <v>300</v>
       </c>
       <c r="AJ44" s="2" t="s">
-        <v>226</v>
+        <v>426</v>
       </c>
       <c r="AK44" s="2"/>
       <c r="AL44" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="AF20:AF23"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AP3:AQ3"/>
     <mergeCell ref="O1:AG2"/>
     <mergeCell ref="H1:N1"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="V3:W3"/>
     <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AF20:AF23"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AP3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4103,117 +4130,117 @@
       <selection activeCell="A22" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="12.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="29.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="29.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="9.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.77734375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="32.109375" style="1" customWidth="1"/>
-    <col min="13" max="14" width="37.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="32.140625" style="1" customWidth="1"/>
+    <col min="13" max="14" width="37.140625" style="1" customWidth="1"/>
     <col min="15" max="15" width="10" style="1" customWidth="1"/>
     <col min="16" max="16" width="11" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="32.21875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="37.109375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="43.88671875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="9.6640625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="11.44140625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="11.109375" style="1" customWidth="1"/>
-    <col min="24" max="24" width="34.88671875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="32.44140625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="29.109375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="22.33203125" style="3" customWidth="1"/>
-    <col min="28" max="28" width="14.33203125" style="1" customWidth="1"/>
-    <col min="29" max="29" width="15.109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="33.109375" style="1" customWidth="1"/>
-    <col min="31" max="32" width="28.6640625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="12.6640625" style="1" customWidth="1"/>
-    <col min="34" max="34" width="9.88671875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="32.28515625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="37.140625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="43.85546875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="9.7109375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="11.42578125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="11.140625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="34.85546875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="32.42578125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="29.140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="22.28515625" style="3" customWidth="1"/>
+    <col min="28" max="28" width="14.28515625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="15.140625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="33.140625" style="1" customWidth="1"/>
+    <col min="31" max="32" width="28.7109375" style="1" customWidth="1"/>
+    <col min="33" max="33" width="12.7109375" style="1" customWidth="1"/>
+    <col min="34" max="34" width="9.85546875" style="1" customWidth="1"/>
     <col min="35" max="35" width="12" style="1" customWidth="1"/>
-    <col min="36" max="36" width="11.44140625" style="1" customWidth="1"/>
-    <col min="37" max="37" width="32.88671875" style="1" customWidth="1"/>
-    <col min="38" max="38" width="33.21875" style="1" customWidth="1"/>
-    <col min="39" max="39" width="17.33203125" style="1" customWidth="1"/>
-    <col min="40" max="40" width="11.44140625" style="1" customWidth="1"/>
+    <col min="36" max="36" width="11.42578125" style="1" customWidth="1"/>
+    <col min="37" max="37" width="32.85546875" style="1" customWidth="1"/>
+    <col min="38" max="38" width="33.28515625" style="1" customWidth="1"/>
+    <col min="39" max="39" width="17.28515625" style="1" customWidth="1"/>
+    <col min="40" max="40" width="11.42578125" style="1" customWidth="1"/>
     <col min="41" max="41" width="9" style="1"/>
-    <col min="42" max="42" width="11.77734375" style="1" customWidth="1"/>
-    <col min="43" max="43" width="13.21875" style="1" customWidth="1"/>
-    <col min="44" max="44" width="34.88671875" style="1" customWidth="1"/>
-    <col min="45" max="45" width="24.44140625" style="1" customWidth="1"/>
+    <col min="42" max="42" width="11.7109375" style="1" customWidth="1"/>
+    <col min="43" max="43" width="13.28515625" style="1" customWidth="1"/>
+    <col min="44" max="44" width="34.85546875" style="1" customWidth="1"/>
+    <col min="45" max="45" width="24.42578125" style="1" customWidth="1"/>
     <col min="46" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="H1" s="13" t="s">
+    <row r="1" spans="1:44">
+      <c r="H1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="11" t="s">
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="11"/>
-      <c r="AG1" s="11"/>
-    </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+    </row>
+    <row r="2" spans="1:44">
       <c r="L2" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="11"/>
-    </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="9"/>
+    </row>
+    <row r="3" spans="1:44">
       <c r="B3" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="D3" s="15"/>
+      <c r="D3" s="13"/>
       <c r="E3" s="1" t="s">
         <v>384</v>
       </c>
@@ -4223,10 +4250,10 @@
       <c r="I3" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="15"/>
+      <c r="K3" s="13"/>
       <c r="L3" s="2" t="s">
         <v>317</v>
       </c>
@@ -4239,10 +4266,10 @@
       <c r="O3" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="P3" s="14" t="s">
+      <c r="P3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="15"/>
+      <c r="Q3" s="13"/>
       <c r="R3" s="2" t="s">
         <v>317</v>
       </c>
@@ -4255,10 +4282,10 @@
       <c r="U3" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="V3" s="14" t="s">
+      <c r="V3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="W3" s="15"/>
+      <c r="W3" s="13"/>
       <c r="X3" s="2" t="s">
         <v>317</v>
       </c>
@@ -4268,10 +4295,10 @@
       <c r="Z3" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="AB3" s="14" t="s">
+      <c r="AB3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="AC3" s="15"/>
+      <c r="AC3" s="13"/>
       <c r="AD3" s="2" t="s">
         <v>320</v>
       </c>
@@ -4281,23 +4308,23 @@
       <c r="AF3" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="AI3" s="14" t="s">
+      <c r="AI3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AJ3" s="15"/>
-      <c r="AK3" s="14" t="s">
+      <c r="AJ3" s="13"/>
+      <c r="AK3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="15"/>
-      <c r="AP3" s="14" t="s">
+      <c r="AL3" s="13"/>
+      <c r="AP3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="AQ3" s="15"/>
+      <c r="AQ3" s="13"/>
       <c r="AR3" s="2" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44">
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
@@ -4403,7 +4430,7 @@
       </c>
       <c r="AR4" s="2"/>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44">
       <c r="A5" s="5" t="s">
         <v>345</v>
       </c>
@@ -4519,7 +4546,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44">
       <c r="A6" s="5" t="s">
         <v>407</v>
       </c>
@@ -4627,7 +4654,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44">
       <c r="A7" s="5" t="s">
         <v>408</v>
       </c>
@@ -4717,7 +4744,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44">
       <c r="A8" s="5" t="s">
         <v>356</v>
       </c>
@@ -4804,7 +4831,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44">
       <c r="A9" s="1" t="s">
         <v>411</v>
       </c>
@@ -4876,7 +4903,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44">
       <c r="A10" s="1" t="s">
         <v>410</v>
       </c>
@@ -4948,7 +4975,7 @@
       </c>
       <c r="AR10" s="5"/>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44">
       <c r="A11" s="1" t="s">
         <v>342</v>
       </c>
@@ -5010,7 +5037,7 @@
       <c r="AK11" s="2"/>
       <c r="AL11" s="2"/>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:44">
       <c r="A12" s="1" t="s">
         <v>369</v>
       </c>
@@ -5072,7 +5099,7 @@
       <c r="AK12" s="2"/>
       <c r="AL12" s="2"/>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:44">
       <c r="A13" s="1" t="s">
         <v>373</v>
       </c>
@@ -5134,7 +5161,7 @@
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:44">
       <c r="A14" s="1" t="s">
         <v>377</v>
       </c>
@@ -5196,7 +5223,7 @@
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:44">
       <c r="I15" s="2">
         <v>11</v>
       </c>
@@ -5246,7 +5273,7 @@
       <c r="AK15" s="2"/>
       <c r="AL15" s="2"/>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:44">
       <c r="I16" s="2">
         <v>12</v>
       </c>
@@ -5296,7 +5323,7 @@
       <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
     </row>
-    <row r="17" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:38">
       <c r="I17" s="2">
         <v>13</v>
       </c>
@@ -5342,7 +5369,7 @@
       <c r="AK17" s="2"/>
       <c r="AL17" s="2"/>
     </row>
-    <row r="18" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:38">
       <c r="I18" s="2">
         <v>14</v>
       </c>
@@ -5388,7 +5415,7 @@
       <c r="AK18" s="2"/>
       <c r="AL18" s="2"/>
     </row>
-    <row r="19" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="9:38">
       <c r="I19" s="2">
         <v>15</v>
       </c>
@@ -5434,7 +5461,7 @@
       <c r="AK19" s="2"/>
       <c r="AL19" s="2"/>
     </row>
-    <row r="20" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="9:38">
       <c r="I20" s="2">
         <v>16</v>
       </c>
@@ -5483,7 +5510,7 @@
       <c r="AK20" s="2"/>
       <c r="AL20" s="2"/>
     </row>
-    <row r="21" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="9:38">
       <c r="I21" s="2">
         <v>17</v>
       </c>
@@ -5530,7 +5557,7 @@
       <c r="AK21" s="2"/>
       <c r="AL21" s="2"/>
     </row>
-    <row r="22" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="9:38">
       <c r="I22" s="2">
         <v>18</v>
       </c>
@@ -5577,7 +5604,7 @@
       <c r="AK22" s="2"/>
       <c r="AL22" s="2"/>
     </row>
-    <row r="23" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="9:38">
       <c r="I23" s="2">
         <v>19</v>
       </c>
@@ -5624,7 +5651,7 @@
       <c r="AK23" s="2"/>
       <c r="AL23" s="2"/>
     </row>
-    <row r="24" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="9:38">
       <c r="I24" s="2">
         <v>20</v>
       </c>
@@ -5670,7 +5697,7 @@
       <c r="AK24" s="2"/>
       <c r="AL24" s="2"/>
     </row>
-    <row r="25" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="9:38">
       <c r="I25" s="2">
         <v>21</v>
       </c>
@@ -5716,7 +5743,7 @@
       <c r="AK25" s="2"/>
       <c r="AL25" s="2"/>
     </row>
-    <row r="26" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="9:38">
       <c r="I26" s="2">
         <v>22</v>
       </c>
@@ -5762,7 +5789,7 @@
       <c r="AK26" s="2"/>
       <c r="AL26" s="2"/>
     </row>
-    <row r="27" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="9:38">
       <c r="I27" s="2">
         <v>23</v>
       </c>
@@ -5808,7 +5835,7 @@
       <c r="AK27" s="2"/>
       <c r="AL27" s="2"/>
     </row>
-    <row r="28" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="9:38">
       <c r="I28" s="2">
         <v>24</v>
       </c>
@@ -5854,7 +5881,7 @@
       <c r="AK28" s="2"/>
       <c r="AL28" s="2"/>
     </row>
-    <row r="29" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="9:38">
       <c r="I29" s="2">
         <v>25</v>
       </c>
@@ -5900,7 +5927,7 @@
       <c r="AK29" s="2"/>
       <c r="AL29" s="2"/>
     </row>
-    <row r="30" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="9:38">
       <c r="I30" s="2">
         <v>26</v>
       </c>
@@ -5946,7 +5973,7 @@
       <c r="AK30" s="2"/>
       <c r="AL30" s="2"/>
     </row>
-    <row r="31" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="9:38">
       <c r="I31" s="2">
         <v>27</v>
       </c>
@@ -5992,7 +6019,7 @@
       <c r="AK31" s="2"/>
       <c r="AL31" s="2"/>
     </row>
-    <row r="32" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="9:38">
       <c r="I32" s="2">
         <v>28</v>
       </c>
@@ -6038,7 +6065,7 @@
       <c r="AK32" s="2"/>
       <c r="AL32" s="2"/>
     </row>
-    <row r="33" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="9:38">
       <c r="I33" s="2">
         <v>29</v>
       </c>
@@ -6084,7 +6111,7 @@
       <c r="AK33" s="2"/>
       <c r="AL33" s="2"/>
     </row>
-    <row r="34" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="9:38">
       <c r="I34" s="2">
         <v>30</v>
       </c>
@@ -6130,7 +6157,7 @@
       <c r="AK34" s="2"/>
       <c r="AL34" s="2"/>
     </row>
-    <row r="35" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="9:38">
       <c r="L35" s="5"/>
       <c r="AB35" s="3" t="s">
         <v>333</v>
@@ -6155,7 +6182,7 @@
       </c>
       <c r="AL35" s="2"/>
     </row>
-    <row r="36" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="9:38">
       <c r="AB36" s="3"/>
       <c r="AC36" s="6"/>
       <c r="AD36" s="6"/>
@@ -6177,7 +6204,7 @@
       <c r="AK36" s="2"/>
       <c r="AL36" s="2"/>
     </row>
-    <row r="37" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="37" spans="9:38">
       <c r="AB37" s="3"/>
       <c r="AD37" s="5"/>
       <c r="AE37" s="1" t="s">
@@ -6201,7 +6228,7 @@
       <c r="AK37" s="2"/>
       <c r="AL37" s="2"/>
     </row>
-    <row r="38" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="9:38">
       <c r="AB38" s="3"/>
       <c r="AD38" s="5"/>
       <c r="AF38" s="5" t="s">
@@ -6222,7 +6249,7 @@
       <c r="AK38" s="2"/>
       <c r="AL38" s="2"/>
     </row>
-    <row r="39" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="9:38">
       <c r="AB39" s="3"/>
       <c r="AD39" s="5"/>
       <c r="AF39" s="5" t="s">
@@ -6243,7 +6270,7 @@
       <c r="AK39" s="2"/>
       <c r="AL39" s="2"/>
     </row>
-    <row r="40" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="9:38">
       <c r="AB40" s="3"/>
       <c r="AD40" s="5"/>
       <c r="AF40" s="5" t="s">
@@ -6264,7 +6291,7 @@
       <c r="AK40" s="2"/>
       <c r="AL40" s="2"/>
     </row>
-    <row r="41" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="41" spans="9:38">
       <c r="AB41" s="3"/>
       <c r="AD41" s="5"/>
       <c r="AF41" s="5" t="s">
@@ -6285,7 +6312,7 @@
       <c r="AK41" s="2"/>
       <c r="AL41" s="2"/>
     </row>
-    <row r="42" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="9:38">
       <c r="AB42" s="3"/>
       <c r="AD42" s="5"/>
       <c r="AF42" s="5" t="s">
@@ -6306,7 +6333,7 @@
       <c r="AK42" s="2"/>
       <c r="AL42" s="2"/>
     </row>
-    <row r="43" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="43" spans="9:38">
       <c r="AB43" s="3"/>
       <c r="AD43" s="5"/>
       <c r="AF43" s="5" t="s">
@@ -6327,7 +6354,7 @@
       <c r="AK43" s="2"/>
       <c r="AL43" s="2"/>
     </row>
-    <row r="44" spans="9:38" x14ac:dyDescent="0.25">
+    <row r="44" spans="9:38">
       <c r="AB44" s="3"/>
       <c r="AD44" s="5"/>
       <c r="AF44" s="5" t="s">
@@ -6350,17 +6377,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="H1:N1"/>
-    <mergeCell ref="O1:AG2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="AB3:AC3"/>
     <mergeCell ref="AI3:AJ3"/>
     <mergeCell ref="AK3:AL3"/>
     <mergeCell ref="AP3:AQ3"/>
     <mergeCell ref="AF20:AF23"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="H1:N1"/>
+    <mergeCell ref="O1:AG2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="AB3:AC3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6376,94 +6403,94 @@
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="10" style="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="18" width="12.44140625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="9.21875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="12.6640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="9.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="18" width="12.42578125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9.28515625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="9.85546875" style="1" customWidth="1"/>
     <col min="22" max="22" width="12" style="1" customWidth="1"/>
-    <col min="23" max="23" width="11.44140625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="9.44140625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="11.44140625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="9.42578125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="11.42578125" style="1" customWidth="1"/>
     <col min="26" max="26" width="9" style="1"/>
-    <col min="27" max="27" width="11.77734375" style="1" customWidth="1"/>
-    <col min="28" max="28" width="13.21875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="11.7109375" style="1" customWidth="1"/>
+    <col min="28" max="28" width="13.28515625" style="1" customWidth="1"/>
     <col min="29" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="11" t="s">
+    <row r="1" spans="2:28" ht="17.45" customHeight="1">
+      <c r="G1" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-    </row>
-    <row r="2" spans="2:28" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-    </row>
-    <row r="3" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+    </row>
+    <row r="2" spans="2:28" ht="17.45" customHeight="1">
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+    </row>
+    <row r="3" spans="2:28">
       <c r="B3" s="2"/>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="H3" s="14" t="s">
+      <c r="D3" s="13"/>
+      <c r="H3" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="N3" s="14" t="s">
+      <c r="I3" s="13"/>
+      <c r="N3" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="O3" s="15"/>
-      <c r="V3" s="14" t="s">
+      <c r="O3" s="13"/>
+      <c r="V3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="W3" s="15"/>
-      <c r="AA3" s="14" t="s">
+      <c r="W3" s="13"/>
+      <c r="AA3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="AB3" s="15"/>
-    </row>
-    <row r="4" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AB3" s="13"/>
+    </row>
+    <row r="4" spans="2:28">
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
@@ -6516,7 +6543,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:28">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -6569,7 +6596,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:28">
       <c r="B6" s="2">
         <v>2</v>
       </c>
@@ -6622,7 +6649,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:28">
       <c r="B7" s="2">
         <v>3</v>
       </c>
@@ -6675,7 +6702,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:28">
       <c r="B8" s="2">
         <v>4</v>
       </c>
@@ -6728,7 +6755,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:28">
       <c r="B9" s="2">
         <v>5</v>
       </c>
@@ -6769,7 +6796,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:28">
       <c r="B10" s="2">
         <v>6</v>
       </c>
@@ -6810,7 +6837,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:28">
       <c r="B11" s="2">
         <v>7</v>
       </c>
@@ -6851,7 +6878,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:28">
       <c r="B12" s="2">
         <v>8</v>
       </c>
@@ -6892,7 +6919,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:28">
       <c r="B13" s="2">
         <v>9</v>
       </c>
@@ -6933,7 +6960,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:28">
       <c r="B14" s="2">
         <v>10</v>
       </c>
@@ -6974,7 +7001,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:28">
       <c r="B15" s="2">
         <v>11</v>
       </c>
@@ -7015,7 +7042,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:28">
       <c r="B16" s="2">
         <v>12</v>
       </c>
@@ -7056,7 +7083,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:23">
       <c r="B17" s="2">
         <v>13</v>
       </c>
@@ -7097,7 +7124,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:23">
       <c r="B18" s="2">
         <v>14</v>
       </c>
@@ -7138,7 +7165,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:23">
       <c r="B19" s="2">
         <v>15</v>
       </c>
@@ -7179,7 +7206,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:23">
       <c r="B20" s="2">
         <v>16</v>
       </c>
@@ -7220,7 +7247,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:23">
       <c r="B21" s="2">
         <v>17</v>
       </c>
@@ -7261,7 +7288,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:23">
       <c r="B22" s="2">
         <v>18</v>
       </c>
@@ -7302,7 +7329,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:23">
       <c r="B23" s="2">
         <v>19</v>
       </c>
@@ -7343,7 +7370,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:23">
       <c r="B24" s="2">
         <v>20</v>
       </c>
@@ -7384,7 +7411,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:23">
       <c r="B25" s="2">
         <v>21</v>
       </c>
@@ -7425,7 +7452,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:23">
       <c r="B26" s="2">
         <v>22</v>
       </c>
@@ -7466,7 +7493,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:23">
       <c r="B27" s="2">
         <v>23</v>
       </c>
@@ -7507,7 +7534,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:23">
       <c r="B28" s="2">
         <v>24</v>
       </c>
@@ -7548,7 +7575,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:23">
       <c r="B29" s="2">
         <v>25</v>
       </c>
@@ -7589,7 +7616,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:23">
       <c r="B30" s="2">
         <v>26</v>
       </c>
@@ -7630,7 +7657,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:23">
       <c r="B31" s="2">
         <v>27</v>
       </c>
@@ -7671,7 +7698,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:23">
       <c r="B32" s="2">
         <v>28</v>
       </c>
@@ -7712,7 +7739,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:25">
       <c r="B33" s="2">
         <v>29</v>
       </c>
@@ -7753,7 +7780,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:25">
       <c r="B34" s="2">
         <v>30</v>
       </c>
@@ -7794,7 +7821,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:25">
       <c r="T35" s="2" t="s">
         <v>280</v>
       </c>
@@ -7812,7 +7839,7 @@
       </c>
       <c r="Y35" s="2"/>
     </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:25">
       <c r="T36" s="2" t="s">
         <v>283</v>
       </c>
